--- a/dicionário biblioteca.xlsx
+++ b/dicionário biblioteca.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2DS_MB_16\Giovana Cristina\BCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/803c7b726a0a1694/Documentos/BCD/BCD-main/BCD-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05618CBF-D6F3-4A0C-AB93-C7F122980A28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{05618CBF-D6F3-4A0C-AB93-C7F122980A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568CB405-F83F-41B2-A139-A4D91A13E66D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4C69AB39-75BF-422B-94DD-B5D0E05AF8F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C69AB39-75BF-422B-94DD-B5D0E05AF8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Autores" sheetId="1" r:id="rId1"/>
+    <sheet name="Categoria" sheetId="2" r:id="rId2"/>
+    <sheet name="Livros" sheetId="3" r:id="rId3"/>
+    <sheet name="livros_autores" sheetId="4" r:id="rId4"/>
+    <sheet name="Usuarios" sheetId="5" r:id="rId5"/>
+    <sheet name="Emprestimo" sheetId="6" r:id="rId6"/>
+    <sheet name="Associacao" sheetId="7" r:id="rId7"/>
+    <sheet name="categorias_livros" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
   <si>
     <t>CAMPO</t>
   </si>
@@ -60,9 +67,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>Autoincremento</t>
-  </si>
-  <si>
     <t>Identificador único de cada autor</t>
   </si>
   <si>
@@ -82,6 +86,132 @@
   </si>
   <si>
     <t>Data de nascimento de cada autor</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>id_categoria</t>
+  </si>
+  <si>
+    <t>tipos_categorias</t>
+  </si>
+  <si>
+    <t>Identificador único da categoria</t>
+  </si>
+  <si>
+    <t>Gênero do livro</t>
+  </si>
+  <si>
+    <t>id_livro</t>
+  </si>
+  <si>
+    <t>Identificador único do livro</t>
+  </si>
+  <si>
+    <t>ISNB</t>
+  </si>
+  <si>
+    <t>Código  único do livro</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>Título do livro</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>Descrição do livro (informações sobre o livro)</t>
+  </si>
+  <si>
+    <t>id_livro_autor</t>
+  </si>
+  <si>
+    <t>Identificador do livro</t>
+  </si>
+  <si>
+    <t>Identificador do autor</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>Identificador único do usuário</t>
+  </si>
+  <si>
+    <t>nome_usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome do usuário</t>
+  </si>
+  <si>
+    <t>email_usuario</t>
+  </si>
+  <si>
+    <t>Email do usuário</t>
+  </si>
+  <si>
+    <t>data_registro</t>
+  </si>
+  <si>
+    <t>Data de registro do usuário</t>
+  </si>
+  <si>
+    <t>id_emprestimo</t>
+  </si>
+  <si>
+    <t>Identificador único do empréstimo</t>
+  </si>
+  <si>
+    <t>data_inicio</t>
+  </si>
+  <si>
+    <t>Data de início do empréstimo</t>
+  </si>
+  <si>
+    <t>data_devolucao</t>
+  </si>
+  <si>
+    <t>Data de fim do empréstimo</t>
+  </si>
+  <si>
+    <t>Identificador do usuário que pegou o livro emprestado</t>
+  </si>
+  <si>
+    <t>Identificador do livro emprestado</t>
+  </si>
+  <si>
+    <t>id_associacao</t>
+  </si>
+  <si>
+    <t>Identificador único da associação</t>
+  </si>
+  <si>
+    <t>tipos_associacao</t>
+  </si>
+  <si>
+    <t>Tipo da associação do usuário (Premium, Basic, Medium)</t>
+  </si>
+  <si>
+    <t>id_categoria_livro</t>
+  </si>
+  <si>
+    <t>dentificador único da relação entre livro e categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id_livro</t>
+  </si>
+  <si>
+    <t>Identificador da categoria</t>
+  </si>
+  <si>
+    <t>Identificador da relação entre livro e autor</t>
   </si>
 </sst>
 </file>
@@ -125,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,24 +578,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7DBFB1-7B5A-41D0-8DFE-4D73526AE647}">
-  <dimension ref="B1:H4"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -501,18 +632,18 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -524,16 +655,16 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -541,11 +672,838 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107FC061-C100-497B-85CD-3639F4731594}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0265074C-E2BF-4F65-858A-8C91A21D72D2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7CBF50-E7BF-4853-A9D7-7F30B4A4FB27}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1688D-7DA1-45FB-B392-4FB16A017B02}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236A172C-FE16-4286-9E7A-6730DB5B7048}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFDDE82-A72E-4DE6-9720-76A181771E6F}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE573D51-36CC-49F0-934E-42CB661F16C0}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>